--- a/api_documentation.xlsx
+++ b/api_documentation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>API LINK</t>
   </si>
@@ -44,7 +44,7 @@
     <t>http://daizik.com/lithuania_webapp/api/preferences/category</t>
   </si>
   <si>
-    <t>Will return categories on the basis of preference selection </t>
+    <t>Will return categories on the basis of preference selection</t>
   </si>
   <si>
     <t>pref_id=pref_id</t>
@@ -66,6 +66,45 @@
   </si>
   <si>
     <t>subcats:1,2 latitude:22.5816993 longitude:88.4559547 search_text:Techpro</t>
+  </si>
+  <si>
+    <t>http://daizik.com/lithuania_webapp/api/comapnies/details</t>
+  </si>
+  <si>
+    <t>Fetch the company details with connection status</t>
+  </si>
+  <si>
+    <t>company_id:1 user_id:1</t>
+  </si>
+  <si>
+    <t>http://daizik.com/lithuania_webapp/api/user/request_connect</t>
+  </si>
+  <si>
+    <t>Request for connection by the user</t>
+  </si>
+  <si>
+    <t>user_id:1
+company_id:1</t>
+  </si>
+  <si>
+    <t>http://daizik.com/lithuania_webapp/api/user/profile</t>
+  </si>
+  <si>
+    <t>User profile details with pending connection count and Connected Counts</t>
+  </si>
+  <si>
+    <t>user_id:2</t>
+  </si>
+  <si>
+    <t>http://daizik.com/lithuania_webapp/api/user/get_connections</t>
+  </si>
+  <si>
+    <t>User connection details with company details for listing and connection status</t>
+  </si>
+  <si>
+    <t>user_id:2
+latitude:22.577319
+Longitude:88.432485</t>
   </si>
 </sst>
 </file>
@@ -149,7 +188,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -163,6 +202,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -181,13 +224,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -216,27 +259,44 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3"/>
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="3"/>
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="3"/>
+      <c r="A5" s="0"/>
+      <c r="B5" s="0"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="3"/>
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="3"/>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="3"/>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
@@ -245,6 +305,17 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -257,6 +328,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+    </row>
     <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>11</v>
@@ -268,6 +344,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+    </row>
     <row r="17" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>14</v>
@@ -275,14 +356,71 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://daizik.com/lithuania_webapp/api/user/login"/>
